--- a/UpdateRecordModule_SH_D/UpdateRecordModule/Resources/EnrollmentListTemplate.xlsx
+++ b/UpdateRecordModule_SH_D/UpdateRecordModule/Resources/EnrollmentListTemplate.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\程式開發\ISchoolPlugIn\SHPermrec\UpdateRecordModule_SH_D\UpdateRecordModule\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SHPermrec\UpdateRecordModule_SH_D\UpdateRecordModule\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="書面格式" sheetId="1" r:id="rId1"/>
     <sheet name="電子格式" sheetId="2" r:id="rId2"/>
     <sheet name="新生名冊封面範本" sheetId="3" r:id="rId3"/>
-    <sheet name="新生人數統計表" sheetId="4" r:id="rId4"/>
+    <sheet name="新生人數統計表範本" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -591,22 +591,10 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -616,42 +604,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -670,16 +637,49 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -964,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
@@ -2125,492 +2125,592 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="22"/>
+      <c r="Q1" s="18"/>
     </row>
     <row r="2" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
     </row>
     <row r="3" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="18" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="18" t="s">
+      <c r="J3" s="19"/>
+      <c r="K3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29" t="s">
+      <c r="E5" s="40"/>
+      <c r="F5" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="30" t="s">
+      <c r="H5" s="40"/>
+      <c r="I5" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="30" t="s">
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="28" t="s">
+      <c r="M5" s="42"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="33"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="38"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="38"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="38"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="27"/>
     </row>
     <row r="9" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="38"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="27"/>
     </row>
     <row r="10" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="38"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="27"/>
     </row>
     <row r="11" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="38"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="27"/>
     </row>
     <row r="12" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="38"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="27"/>
     </row>
     <row r="13" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="38"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="27"/>
     </row>
     <row r="14" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="38"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="27"/>
     </row>
     <row r="15" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="38"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="27"/>
     </row>
     <row r="16" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="38"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="27"/>
     </row>
     <row r="17" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="38"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="27"/>
     </row>
     <row r="18" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="38"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="27"/>
     </row>
     <row r="19" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="38"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="27"/>
     </row>
     <row r="20" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="38"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="27"/>
     </row>
     <row r="21" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="38"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="27"/>
     </row>
     <row r="22" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="38"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="27"/>
     </row>
     <row r="23" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="38"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="27"/>
     </row>
     <row r="24" spans="2:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="38"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="27"/>
     </row>
     <row r="25" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="43"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="31"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:Q23"/>
     <mergeCell ref="N27:R27"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
@@ -2622,106 +2722,6 @@
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4521,8 +4521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
